--- a/data/trans_camb/P22_R4-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P22_R4-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.146301393200978</v>
+        <v>-1.159186393811434</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.785491977019118</v>
+        <v>-3.668475617579096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.528072516192547</v>
+        <v>-2.784334154299795</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.715692073465767</v>
+        <v>-2.63861665109189</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.928831824771949</v>
+        <v>-3.627534384033353</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.407426080973315</v>
+        <v>-1.457711978005707</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.577542581010918</v>
+        <v>-1.629377399644055</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.203289684959854</v>
+        <v>-3.183324638809832</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.567295873760481</v>
+        <v>-1.537133856233038</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.028358698443436</v>
+        <v>3.162172551669783</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1192524335915546</v>
+        <v>0.08407034243053398</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.134802997193529</v>
+        <v>2.060097986058409</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.137649331099191</v>
+        <v>0.9686119770802128</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.4801275139005532</v>
+        <v>-0.4860123741335651</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.986846941196889</v>
+        <v>2.845832645330603</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.453434770762246</v>
+        <v>1.387113669432209</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.7410432597282632</v>
+        <v>-0.7248687515106372</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.79160040062077</v>
+        <v>1.671552165645774</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2568837442034966</v>
+        <v>-0.2580758492302223</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7076624586396721</v>
+        <v>-0.7033572777472563</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5523750413287927</v>
+        <v>-0.5631891540158841</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4780710225229582</v>
+        <v>-0.4749615052349919</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6735630269177947</v>
+        <v>-0.6615412016458329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2734450646182811</v>
+        <v>-0.2791274445711844</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3013419359996429</v>
+        <v>-0.3239523030635181</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6245730511027802</v>
+        <v>-0.6112062320961752</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3117216953966505</v>
+        <v>-0.3112410954818418</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.195441268888397</v>
+        <v>1.272840602917767</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.06738977577006157</v>
+        <v>0.08489774891247574</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8592970495473062</v>
+        <v>0.823907456468586</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3593609782415649</v>
+        <v>0.2957735052010596</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1227106792894649</v>
+        <v>-0.1082232465596982</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8981367043154244</v>
+        <v>0.8328869751261776</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4446279766867107</v>
+        <v>0.4198427182060668</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2168599635090849</v>
+        <v>-0.1970264576174135</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5270854856373482</v>
+        <v>0.4900820610604279</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.390328093964688</v>
+        <v>-2.34757333431261</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.893112291424113</v>
+        <v>-2.601637403429328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.744389696999199</v>
+        <v>-3.359469707361144</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.447317606491342</v>
+        <v>-2.342555757798794</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.316465611033992</v>
+        <v>-2.180717269485775</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.131217607733407</v>
+        <v>-1.98769259434998</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.78849336599176</v>
+        <v>-2.039104731947637</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.722313058491541</v>
+        <v>-1.830340978724006</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.11898186073429</v>
+        <v>-2.063785977950689</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.799111457903978</v>
+        <v>1.947282904116375</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.567919216809004</v>
+        <v>1.782459634456942</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7148835461671897</v>
+        <v>0.8437366000427104</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.176093736402412</v>
+        <v>1.93541173175472</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.245351732460283</v>
+        <v>2.493718856478377</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.994146283527251</v>
+        <v>2.209190742389875</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.297624426757111</v>
+        <v>1.274320327795047</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.412903287458396</v>
+        <v>1.345885549510577</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9021774664718059</v>
+        <v>0.9290093247723558</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3165721606586711</v>
+        <v>-0.3165665654909622</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3831507130936089</v>
+        <v>-0.3435884991000934</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4783022302753983</v>
+        <v>-0.4438071211437678</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2942975486830285</v>
+        <v>-0.2972460074889684</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2828792774830881</v>
+        <v>-0.2714071915080504</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2587601115167784</v>
+        <v>-0.2525600688776527</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2407142915918743</v>
+        <v>-0.2619612426062421</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2271770305386555</v>
+        <v>-0.2405379501220111</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2746094115267251</v>
+        <v>-0.269546630112531</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3335965612295431</v>
+        <v>0.3546113471135586</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2953467611857751</v>
+        <v>0.3329489626983318</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1387111180671655</v>
+        <v>0.1626320871436955</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3718971942103391</v>
+        <v>0.3173073650757405</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.381762686574722</v>
+        <v>0.4138267308650027</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3338222899038533</v>
+        <v>0.3498411385841624</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2066471339871288</v>
+        <v>0.2143845071128081</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2332359189590646</v>
+        <v>0.2285926651563829</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1529707876810809</v>
+        <v>0.1564896196195777</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.7678401228727996</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.146831221048924</v>
+        <v>3.146831221048926</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.139640383797351</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.431201121884655</v>
+        <v>-3.610858895403978</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.421966028974662</v>
+        <v>-3.079673529600828</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.541817061412176</v>
+        <v>-2.514684543644763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.490438919394705</v>
+        <v>-4.080245449448727</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.672925239206645</v>
+        <v>-3.802294421425986</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1230387576690026</v>
+        <v>0.4105735327415048</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.131699257371004</v>
+        <v>-3.246308927079292</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.652292718119554</v>
+        <v>-2.619906097226085</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.08468098771272198</v>
+        <v>-0.2605151688935986</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.228514082442889</v>
+        <v>2.933922641824122</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.737213288080879</v>
+        <v>3.318833654455389</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.866571155442137</v>
+        <v>3.52695043441609</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.229531315796246</v>
+        <v>1.391860511080948</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.333032092148801</v>
+        <v>2.166457525997199</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.859232133430949</v>
+        <v>5.910391820945462</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.096148082574712</v>
+        <v>1.031410007173113</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.620554532713507</v>
+        <v>1.470159512454223</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.975861326530257</v>
+        <v>4.033853365459165</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.07039091867178639</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.288482372770442</v>
+        <v>0.2884823727704423</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.09541658239510628</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2453499848961273</v>
+        <v>-0.2570468431275125</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2443497550309949</v>
+        <v>-0.2170523457908752</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1743280057124878</v>
+        <v>-0.1775198814859715</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3505822642657835</v>
+        <v>-0.3455595854013855</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3043479448205627</v>
+        <v>-0.3064781407584252</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01033979052612027</v>
+        <v>0.02586508211963181</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2449024698410588</v>
+        <v>-0.256782180897626</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2045701519933922</v>
+        <v>-0.199212980769899</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.006554071117535558</v>
+        <v>-0.02319714773451137</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1984824115262392</v>
+        <v>0.2616843137181621</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.235982940414386</v>
+        <v>0.2953940884997854</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.338021543640991</v>
+        <v>0.3050607749666212</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1318606876120225</v>
+        <v>0.1427013466386681</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2541444002882267</v>
+        <v>0.2347299263429515</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6370332289453819</v>
+        <v>0.6166487225206575</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09990110558700845</v>
+        <v>0.09288962092485455</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1492121601726385</v>
+        <v>0.1356208110014611</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3659300837031738</v>
+        <v>0.3572164671452687</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-5.525807473110617</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.612169002080944</v>
+        <v>2.612169002080939</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-10.83373624572823</v>
@@ -1297,7 +1297,7 @@
         <v>-8.251621759112309</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.472515488654658</v>
+        <v>-1.472515488654652</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-7.928679029229305</v>
@@ -1306,7 +1306,7 @@
         <v>-6.713200419161009</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.770239400625905</v>
+        <v>0.7702394006258995</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-11.28179126114381</v>
+        <v>-11.48387341844795</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.71772110617436</v>
+        <v>-10.84002719822518</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.769180264889276</v>
+        <v>-2.555913966389664</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-16.62751012590697</v>
+        <v>-17.03777650949348</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-14.84857894816566</v>
+        <v>-14.26077349591457</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.961508360688626</v>
+        <v>-6.546187953393208</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-11.681442656728</v>
+        <v>-12.02196325317294</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-10.66646770759203</v>
+        <v>-10.69183998254187</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.009323471655442</v>
+        <v>-3.070788923294216</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.2454816109880142</v>
+        <v>-0.2400792672969492</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4648122814663557</v>
+        <v>-0.3805401747333164</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.380884476426703</v>
+        <v>7.751821327732826</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-4.58029792504737</v>
+        <v>-4.76242725215132</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.992322959873074</v>
+        <v>-2.193018668978119</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.345685805917634</v>
+        <v>3.97692657341823</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-3.677192662523707</v>
+        <v>-3.951851607695089</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.718264127477918</v>
+        <v>-2.265524694288545</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.555656390978728</v>
+        <v>4.132469237526631</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2267017995325544</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1071668559457704</v>
+        <v>0.1071668559457701</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.4011804848207145</v>
@@ -1402,7 +1402,7 @@
         <v>-0.3055630617907213</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.05452823146561453</v>
+        <v>-0.05452823146561432</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.3107455689339517</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2631077984024038</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.03018768698801878</v>
+        <v>0.03018768698801856</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4198856112967764</v>
+        <v>-0.4100977158315682</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3984744757446472</v>
+        <v>-0.4053534143561824</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.09856375369846322</v>
+        <v>-0.08824866746243842</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5441277430097214</v>
+        <v>-0.5654680857875461</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4780805380136619</v>
+        <v>-0.4678346999821088</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2193270416025082</v>
+        <v>-0.2155271541925194</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4256532002406873</v>
+        <v>-0.4357167882669961</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.378541183295458</v>
+        <v>-0.3860326341403969</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1081359612227804</v>
+        <v>-0.1065594840619316</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.00472463986462904</v>
+        <v>-0.005517940258663506</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.02333233970822779</v>
+        <v>-0.02194732062598184</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.352453132789328</v>
+        <v>0.3802694841118234</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1856092126675795</v>
+        <v>-0.1914072213049516</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.08627364497999314</v>
+        <v>-0.08669577775759024</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1963186792717053</v>
+        <v>0.1735783005938272</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1510643742498374</v>
+        <v>-0.1703185480387003</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1146322874648986</v>
+        <v>-0.09917652493134772</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2046139818771778</v>
+        <v>0.1773266729286699</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-2.112185915337272</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.280079238159864</v>
+        <v>3.280079238159858</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.955517772006369</v>
+        <v>-3.055501993848493</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.824825527467442</v>
+        <v>-3.959615485828895</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.226226940144738</v>
+        <v>1.169522588757264</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.511084498615934</v>
+        <v>-3.38775415544437</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.426325665672519</v>
+        <v>-3.251339493864332</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.229379273664508</v>
+        <v>2.357865414464622</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.691874719776531</v>
+        <v>-2.707681163225315</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.027254032707059</v>
+        <v>-3.086609515628606</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.091373639187389</v>
+        <v>2.115830690694124</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.09098928254212796</v>
+        <v>0.04129746031713261</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.9202374707370329</v>
+        <v>-0.9960371275009254</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.6193524013726</v>
+        <v>4.603906203054771</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.556667258734212</v>
+        <v>-0.4781577402787708</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.4814017538035213</v>
+        <v>-0.5346835030970282</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.047872276555685</v>
+        <v>5.171935161107471</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.5477989189318311</v>
+        <v>-0.7321387975631148</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.079926889980362</v>
+        <v>-1.118788069417162</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.267247270707882</v>
+        <v>4.347785926395993</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.2088669536699637</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3243559921954833</v>
+        <v>0.3243559921954827</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2608842211769673</v>
+        <v>-0.2657422559547709</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3375468034040669</v>
+        <v>-0.3440425518356353</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1072254790342416</v>
+        <v>0.100445443237376</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.340018170266866</v>
+        <v>-0.3291160276165963</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3252753535082994</v>
+        <v>-0.3101172466178835</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2135810013600845</v>
+        <v>0.2273054200197501</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.257105546715212</v>
+        <v>-0.257057425274908</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2846899387950546</v>
+        <v>-0.2884829856961088</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1978630044229951</v>
+        <v>0.1919211429245233</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01179588768959809</v>
+        <v>0.005283260988569367</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.09162229968046008</v>
+        <v>-0.09855175237929326</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4586966821975033</v>
+        <v>0.4659181815378462</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.05946136717416351</v>
+        <v>-0.0548566942884984</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.05194300494390326</v>
+        <v>-0.05565817003366899</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5627389695394593</v>
+        <v>0.5965977767835983</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.05465329859772842</v>
+        <v>-0.07706658635242528</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1105443086178516</v>
+        <v>-0.1154395468703794</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.446157870366623</v>
+        <v>0.4517747729424941</v>
       </c>
     </row>
     <row r="34">
